--- a/GATEWAY/A1#111KIRANETXXXX/KIRANET/FIDCARE/V.5.4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111KIRANETXXXX/KIRANET/FIDCARE/V.5.4.0/report-checklist.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -528,9 +528,6 @@
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT1</t>
   </si>
   <si>
@@ -538,6 +535,27 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
+  </si>
+  <si>
+    <t>2023-05-12 16:39:20.744</t>
+  </si>
+  <si>
+    <t>cb5c8df8144a880c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.5cbb7959dd0286289a6ae921ba62d377209184bc997fc312672d754b706d114b.e92e8235f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Documento non valido</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>OK</t>
@@ -890,13 +908,7 @@
     <t>Oscuramento</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -931,7 +943,7 @@
     <font>
       <b val="1"/>
       <sz val="14"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -973,7 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1000,88 +1012,88 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="9"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="9"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thick">
         <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -1123,13 +1135,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,7 +1165,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -1180,13 +1192,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1221,7 +1233,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -1254,7 +1266,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,26 +1275,26 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,10 +1303,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1303,13 +1315,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1318,16 +1330,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1336,7 +1348,7 @@
         <color indexed="8"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -1348,10 +1360,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
@@ -1408,11 +1420,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1421,7 +1433,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1429,19 +1441,19 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -1457,14 +1469,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,17 +1486,17 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1496,28 +1508,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1532,13 +1544,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1556,43 +1568,43 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1640,6 +1652,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1685,13 +1700,13 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1706,7 +1721,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1715,7 +1730,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1735,8 +1750,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff4472c4"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffd9e2f3"/>
@@ -1942,17 +1957,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1979,10 +1994,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2221,12 +2236,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2503,7 +2518,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2530,10 +2545,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3431,9 +3446,7 @@
       <c r="O12" s="51"/>
       <c r="P12" s="51"/>
       <c r="Q12" s="51"/>
-      <c r="R12" t="s" s="52">
-        <v>56</v>
-      </c>
+      <c r="R12" s="52"/>
       <c r="S12" s="53"/>
       <c r="T12" t="s" s="54">
         <v>51</v>
@@ -3450,27 +3463,47 @@
         <v>48</v>
       </c>
       <c r="D13" t="s" s="48">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s" s="49">
         <v>57</v>
       </c>
-      <c r="E13" t="s" s="49">
+      <c r="F13" s="50">
+        <v>45058</v>
+      </c>
+      <c r="G13" t="s" s="55">
         <v>58</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
+      <c r="H13" t="s" s="55">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s" s="55">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s" s="52">
+        <v>61</v>
+      </c>
       <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
+      <c r="L13" t="s" s="52">
+        <v>62</v>
+      </c>
+      <c r="M13" t="s" s="52">
+        <v>62</v>
+      </c>
+      <c r="N13" t="s" s="52">
+        <v>63</v>
+      </c>
+      <c r="O13" t="s" s="52">
+        <v>62</v>
+      </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
+      <c r="Q13" t="s" s="52">
+        <v>64</v>
+      </c>
       <c r="R13" s="52"/>
       <c r="S13" s="53"/>
       <c r="T13" t="s" s="54">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" ht="158.4" customHeight="1">
@@ -3484,10 +3517,10 @@
         <v>48</v>
       </c>
       <c r="D14" t="s" s="48">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s" s="49">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
@@ -3504,7 +3537,7 @@
       <c r="R14" s="52"/>
       <c r="S14" s="53"/>
       <c r="T14" t="s" s="54">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="158.4" customHeight="1">
@@ -3518,10 +3551,10 @@
         <v>48</v>
       </c>
       <c r="D15" t="s" s="48">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s" s="49">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
@@ -3538,7 +3571,7 @@
       <c r="R15" s="52"/>
       <c r="S15" s="53"/>
       <c r="T15" t="s" s="54">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="158.4" customHeight="1">
@@ -3552,10 +3585,10 @@
         <v>48</v>
       </c>
       <c r="D16" t="s" s="48">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s" s="49">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
@@ -3572,7 +3605,7 @@
       <c r="R16" s="52"/>
       <c r="S16" s="53"/>
       <c r="T16" t="s" s="54">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="100.8" customHeight="1">
@@ -3586,10 +3619,10 @@
         <v>48</v>
       </c>
       <c r="D17" t="s" s="48">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s" s="49">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
@@ -3620,10 +3653,10 @@
         <v>48</v>
       </c>
       <c r="D18" t="s" s="48">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s" s="49">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
@@ -3654,10 +3687,10 @@
         <v>48</v>
       </c>
       <c r="D19" t="s" s="48">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s" s="49">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
@@ -3688,10 +3721,10 @@
         <v>48</v>
       </c>
       <c r="D20" t="s" s="48">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s" s="49">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
@@ -3722,10 +3755,10 @@
         <v>48</v>
       </c>
       <c r="D21" t="s" s="48">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s" s="49">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
@@ -3756,10 +3789,10 @@
         <v>48</v>
       </c>
       <c r="D22" t="s" s="48">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s" s="49">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
@@ -3790,10 +3823,10 @@
         <v>48</v>
       </c>
       <c r="D23" t="s" s="48">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s" s="49">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
@@ -3824,10 +3857,10 @@
         <v>48</v>
       </c>
       <c r="D24" t="s" s="48">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s" s="49">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
@@ -3858,10 +3891,10 @@
         <v>48</v>
       </c>
       <c r="D25" t="s" s="48">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s" s="49">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
@@ -3892,10 +3925,10 @@
         <v>48</v>
       </c>
       <c r="D26" t="s" s="48">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s" s="49">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -3926,10 +3959,10 @@
         <v>48</v>
       </c>
       <c r="D27" t="s" s="48">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s" s="49">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
@@ -3960,10 +3993,10 @@
         <v>48</v>
       </c>
       <c r="D28" t="s" s="48">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s" s="49">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
@@ -3994,10 +4027,10 @@
         <v>48</v>
       </c>
       <c r="D29" t="s" s="48">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s" s="49">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
@@ -4028,10 +4061,10 @@
         <v>48</v>
       </c>
       <c r="D30" t="s" s="48">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s" s="49">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
@@ -4062,10 +4095,10 @@
         <v>48</v>
       </c>
       <c r="D31" t="s" s="48">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s" s="49">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F31" s="50"/>
       <c r="G31" s="50"/>
@@ -4096,10 +4129,10 @@
         <v>48</v>
       </c>
       <c r="D32" t="s" s="48">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s" s="49">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F32" s="50"/>
       <c r="G32" s="50"/>
@@ -4130,10 +4163,10 @@
         <v>48</v>
       </c>
       <c r="D33" t="s" s="48">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s" s="49">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F33" s="50"/>
       <c r="G33" s="50"/>
@@ -4164,10 +4197,10 @@
         <v>48</v>
       </c>
       <c r="D34" t="s" s="48">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s" s="49">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
@@ -4188,36 +4221,36 @@
       </c>
     </row>
     <row r="35" ht="115.2" customHeight="1">
-      <c r="A35" s="55">
+      <c r="A35" s="56">
         <v>169</v>
       </c>
-      <c r="B35" t="s" s="56">
+      <c r="B35" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="C35" t="s" s="56">
+      <c r="C35" t="s" s="57">
         <v>48</v>
       </c>
-      <c r="D35" t="s" s="56">
-        <v>102</v>
-      </c>
-      <c r="E35" t="s" s="57">
-        <v>103</v>
-      </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="61"/>
-      <c r="T35" t="s" s="62">
+      <c r="D35" t="s" s="57">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s" s="58">
+        <v>109</v>
+      </c>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="62"/>
+      <c r="T35" t="s" s="63">
         <v>51</v>
       </c>
     </row>
@@ -4227,21 +4260,21 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="67"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="68"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="3"/>
@@ -17853,116 +17886,116 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="68" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="68" customWidth="1"/>
-    <col min="3" max="3" width="18.8516" style="68" customWidth="1"/>
-    <col min="4" max="4" width="102" style="68" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="68" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="68" customWidth="1"/>
+    <col min="1" max="1" width="16" style="69" customWidth="1"/>
+    <col min="2" max="2" width="23.8516" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.8516" style="69" customWidth="1"/>
+    <col min="4" max="4" width="102" style="69" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="69" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="69">
+      <c r="A1" t="s" s="70">
         <v>29</v>
       </c>
-      <c r="B1" t="s" s="69">
+      <c r="B1" t="s" s="70">
         <v>28</v>
       </c>
-      <c r="C1" t="s" s="69">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s" s="69">
-        <v>105</v>
+      <c r="C1" t="s" s="70">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s" s="70">
+        <v>111</v>
       </c>
       <c r="E1" s="14"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="19">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s" s="70">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s" s="70">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="C2" t="s" s="71">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s" s="71">
+        <v>115</v>
       </c>
       <c r="E2" s="14"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="19">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s" s="70">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s" s="70">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="C3" t="s" s="71">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s" s="71">
+        <v>118</v>
       </c>
       <c r="E3" s="14"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s" s="19">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s" s="19">
         <v>113</v>
       </c>
-      <c r="B4" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s" s="70">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s" s="71">
-        <v>115</v>
+      <c r="C4" t="s" s="71">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s" s="72">
+        <v>121</v>
       </c>
       <c r="E4" s="14"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="19">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s" s="70">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s" s="70">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="C5" t="s" s="71">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s" s="71">
+        <v>124</v>
       </c>
       <c r="E5" s="14"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="19">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s" s="70">
-        <v>120</v>
-      </c>
-      <c r="D6" t="s" s="71">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="C6" t="s" s="71">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s" s="72">
+        <v>127</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
       <c r="A7" t="s" s="19">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s" s="70">
-        <v>123</v>
-      </c>
-      <c r="D7" t="s" s="71">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="C7" t="s" s="71">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s" s="72">
+        <v>130</v>
       </c>
       <c r="E7" s="14"/>
     </row>
@@ -17971,133 +18004,133 @@
         <v>48</v>
       </c>
       <c r="B8" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s" s="70">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s" s="71">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="C8" t="s" s="71">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s" s="72">
+        <v>132</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" ht="14.4" customHeight="1">
       <c r="A9" t="s" s="19">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="C9" t="s" s="70">
-        <v>128</v>
-      </c>
-      <c r="D9" t="s" s="71">
-        <v>129</v>
+        <v>113</v>
+      </c>
+      <c r="C9" t="s" s="71">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s" s="72">
+        <v>135</v>
       </c>
       <c r="E9" s="14"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s" s="19">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="19">
-        <v>107</v>
-      </c>
-      <c r="C10" s="72">
+        <v>113</v>
+      </c>
+      <c r="C10" s="73">
         <v>191</v>
       </c>
-      <c r="D10" t="s" s="70">
-        <v>131</v>
+      <c r="D10" t="s" s="71">
+        <v>137</v>
       </c>
       <c r="E10" s="14"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s" s="19">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="19">
-        <v>132</v>
-      </c>
-      <c r="C11" s="72">
+        <v>138</v>
+      </c>
+      <c r="C11" s="73">
         <v>192</v>
       </c>
-      <c r="D11" t="s" s="70">
-        <v>133</v>
+      <c r="D11" t="s" s="71">
+        <v>139</v>
       </c>
       <c r="E11" s="14"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s" s="19">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="19">
-        <v>132</v>
-      </c>
-      <c r="C12" s="72">
+        <v>138</v>
+      </c>
+      <c r="C12" s="73">
         <v>208</v>
       </c>
-      <c r="D12" t="s" s="70">
-        <v>134</v>
+      <c r="D12" t="s" s="71">
+        <v>140</v>
       </c>
       <c r="E12" s="14"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s" s="19">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s" s="19">
-        <v>132</v>
-      </c>
-      <c r="C13" s="72">
+        <v>138</v>
+      </c>
+      <c r="C13" s="73">
         <v>224</v>
       </c>
-      <c r="D13" t="s" s="71">
-        <v>135</v>
+      <c r="D13" t="s" s="72">
+        <v>141</v>
       </c>
       <c r="E13" s="14"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s" s="19">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s" s="19">
-        <v>132</v>
-      </c>
-      <c r="C14" s="72">
+        <v>138</v>
+      </c>
+      <c r="C14" s="73">
         <v>240</v>
       </c>
-      <c r="D14" t="s" s="70">
-        <v>136</v>
+      <c r="D14" t="s" s="71">
+        <v>142</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s" s="19">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s" s="19">
-        <v>132</v>
-      </c>
-      <c r="C15" s="72">
+        <v>138</v>
+      </c>
+      <c r="C15" s="73">
         <v>256</v>
       </c>
-      <c r="D15" t="s" s="71">
-        <v>137</v>
+      <c r="D15" t="s" s="72">
+        <v>143</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s" s="19">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="19">
-        <v>132</v>
-      </c>
-      <c r="C16" s="72">
+        <v>138</v>
+      </c>
+      <c r="C16" s="73">
         <v>272</v>
       </c>
-      <c r="D16" t="s" s="71">
-        <v>138</v>
+      <c r="D16" t="s" s="72">
+        <v>144</v>
       </c>
       <c r="E16" s="14"/>
     </row>
@@ -18106,118 +18139,118 @@
         <v>48</v>
       </c>
       <c r="B17" t="s" s="19">
-        <v>132</v>
-      </c>
-      <c r="C17" s="72">
+        <v>138</v>
+      </c>
+      <c r="C17" s="73">
         <v>288</v>
       </c>
-      <c r="D17" t="s" s="71">
-        <v>139</v>
+      <c r="D17" t="s" s="72">
+        <v>145</v>
       </c>
       <c r="E17" s="14"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" t="s" s="19">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s" s="19">
-        <v>132</v>
-      </c>
-      <c r="C18" s="72">
+        <v>138</v>
+      </c>
+      <c r="C18" s="73">
         <v>304</v>
       </c>
-      <c r="D18" t="s" s="71">
-        <v>140</v>
+      <c r="D18" t="s" s="72">
+        <v>146</v>
       </c>
       <c r="E18" s="14"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s" s="19">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s" s="19">
-        <v>141</v>
-      </c>
-      <c r="C19" s="72">
+        <v>147</v>
+      </c>
+      <c r="C19" s="73">
         <v>193</v>
       </c>
-      <c r="D19" t="s" s="70">
-        <v>142</v>
+      <c r="D19" t="s" s="71">
+        <v>148</v>
       </c>
       <c r="E19" s="14"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s" s="19">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s" s="19">
-        <v>141</v>
-      </c>
-      <c r="C20" s="72">
+        <v>147</v>
+      </c>
+      <c r="C20" s="73">
         <v>209</v>
       </c>
-      <c r="D20" t="s" s="70">
-        <v>143</v>
+      <c r="D20" t="s" s="71">
+        <v>149</v>
       </c>
       <c r="E20" s="14"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s" s="19">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s" s="19">
-        <v>141</v>
-      </c>
-      <c r="C21" s="72">
+        <v>147</v>
+      </c>
+      <c r="C21" s="73">
         <v>225</v>
       </c>
-      <c r="D21" t="s" s="71">
-        <v>144</v>
+      <c r="D21" t="s" s="72">
+        <v>150</v>
       </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s" s="19">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s" s="19">
-        <v>141</v>
-      </c>
-      <c r="C22" s="72">
+        <v>147</v>
+      </c>
+      <c r="C22" s="73">
         <v>241</v>
       </c>
-      <c r="D22" t="s" s="70">
-        <v>145</v>
+      <c r="D22" t="s" s="71">
+        <v>151</v>
       </c>
       <c r="E22" s="14"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s" s="19">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s" s="19">
-        <v>141</v>
-      </c>
-      <c r="C23" s="72">
+        <v>147</v>
+      </c>
+      <c r="C23" s="73">
         <v>257</v>
       </c>
-      <c r="D23" t="s" s="71">
-        <v>146</v>
+      <c r="D23" t="s" s="72">
+        <v>152</v>
       </c>
       <c r="E23" s="14"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s" s="19">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s" s="19">
-        <v>141</v>
-      </c>
-      <c r="C24" s="72">
+        <v>147</v>
+      </c>
+      <c r="C24" s="73">
         <v>273</v>
       </c>
-      <c r="D24" t="s" s="71">
-        <v>147</v>
+      <c r="D24" t="s" s="72">
+        <v>153</v>
       </c>
       <c r="E24" s="14"/>
     </row>
@@ -18226,118 +18259,118 @@
         <v>48</v>
       </c>
       <c r="B25" t="s" s="19">
-        <v>141</v>
-      </c>
-      <c r="C25" s="72">
+        <v>147</v>
+      </c>
+      <c r="C25" s="73">
         <v>289</v>
       </c>
-      <c r="D25" t="s" s="71">
-        <v>148</v>
+      <c r="D25" t="s" s="72">
+        <v>154</v>
       </c>
       <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s" s="19">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s" s="19">
-        <v>141</v>
-      </c>
-      <c r="C26" s="72">
+        <v>147</v>
+      </c>
+      <c r="C26" s="73">
         <v>305</v>
       </c>
-      <c r="D26" t="s" s="71">
-        <v>149</v>
+      <c r="D26" t="s" s="72">
+        <v>155</v>
       </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s" s="19">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s" s="19">
-        <v>150</v>
-      </c>
-      <c r="C27" s="72">
+        <v>156</v>
+      </c>
+      <c r="C27" s="73">
         <v>194</v>
       </c>
-      <c r="D27" t="s" s="70">
-        <v>151</v>
+      <c r="D27" t="s" s="71">
+        <v>157</v>
       </c>
       <c r="E27" s="14"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s" s="19">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s" s="19">
-        <v>150</v>
-      </c>
-      <c r="C28" s="72">
+        <v>156</v>
+      </c>
+      <c r="C28" s="73">
         <v>210</v>
       </c>
-      <c r="D28" t="s" s="70">
-        <v>152</v>
+      <c r="D28" t="s" s="71">
+        <v>158</v>
       </c>
       <c r="E28" s="14"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" t="s" s="19">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s" s="19">
-        <v>150</v>
-      </c>
-      <c r="C29" s="72">
+        <v>156</v>
+      </c>
+      <c r="C29" s="73">
         <v>226</v>
       </c>
-      <c r="D29" t="s" s="71">
-        <v>153</v>
+      <c r="D29" t="s" s="72">
+        <v>159</v>
       </c>
       <c r="E29" s="14"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" t="s" s="19">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s" s="19">
-        <v>150</v>
-      </c>
-      <c r="C30" s="72">
+        <v>156</v>
+      </c>
+      <c r="C30" s="73">
         <v>242</v>
       </c>
-      <c r="D30" t="s" s="70">
-        <v>154</v>
+      <c r="D30" t="s" s="71">
+        <v>160</v>
       </c>
       <c r="E30" s="14"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" t="s" s="19">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s" s="19">
-        <v>150</v>
-      </c>
-      <c r="C31" s="72">
+        <v>156</v>
+      </c>
+      <c r="C31" s="73">
         <v>258</v>
       </c>
-      <c r="D31" t="s" s="71">
-        <v>155</v>
+      <c r="D31" t="s" s="72">
+        <v>161</v>
       </c>
       <c r="E31" s="14"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" t="s" s="19">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s" s="19">
-        <v>150</v>
-      </c>
-      <c r="C32" s="72">
+        <v>156</v>
+      </c>
+      <c r="C32" s="73">
         <v>274</v>
       </c>
-      <c r="D32" t="s" s="71">
-        <v>156</v>
+      <c r="D32" t="s" s="72">
+        <v>162</v>
       </c>
       <c r="E32" s="14"/>
     </row>
@@ -18346,117 +18379,117 @@
         <v>48</v>
       </c>
       <c r="B33" t="s" s="19">
-        <v>150</v>
-      </c>
-      <c r="C33" s="72">
+        <v>156</v>
+      </c>
+      <c r="C33" s="73">
         <v>290</v>
       </c>
-      <c r="D33" t="s" s="71">
-        <v>157</v>
+      <c r="D33" t="s" s="72">
+        <v>163</v>
       </c>
       <c r="E33" s="14"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" t="s" s="19">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s" s="19">
-        <v>150</v>
-      </c>
-      <c r="C34" s="72">
+        <v>156</v>
+      </c>
+      <c r="C34" s="73">
         <v>306</v>
       </c>
-      <c r="D34" t="s" s="71">
-        <v>158</v>
+      <c r="D34" t="s" s="72">
+        <v>164</v>
       </c>
       <c r="E34" s="14"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" t="s" s="19">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="C35" s="72">
+        <v>165</v>
+      </c>
+      <c r="C35" s="73">
         <v>195</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="73">
         <v>204</v>
       </c>
       <c r="E35" s="14"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" t="s" s="19">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="C36" s="72">
+        <v>165</v>
+      </c>
+      <c r="C36" s="73">
         <v>211</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="73">
         <v>220</v>
       </c>
       <c r="E36" s="14"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" t="s" s="19">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="C37" s="72">
+        <v>165</v>
+      </c>
+      <c r="C37" s="73">
         <v>227</v>
       </c>
-      <c r="D37" s="73">
+      <c r="D37" s="74">
         <v>236</v>
       </c>
       <c r="E37" s="14"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" t="s" s="19">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="C38" s="72">
+        <v>165</v>
+      </c>
+      <c r="C38" s="73">
         <v>243</v>
       </c>
-      <c r="D38" s="72">
+      <c r="D38" s="73">
         <v>252</v>
       </c>
       <c r="E38" s="14"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" t="s" s="19">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="C39" s="72">
+        <v>165</v>
+      </c>
+      <c r="C39" s="73">
         <v>259</v>
       </c>
-      <c r="D39" s="73">
+      <c r="D39" s="74">
         <v>268</v>
       </c>
       <c r="E39" s="14"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" t="s" s="19">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="C40" s="72">
+        <v>165</v>
+      </c>
+      <c r="C40" s="73">
         <v>275</v>
       </c>
-      <c r="D40" s="73">
+      <c r="D40" s="74">
         <v>284</v>
       </c>
       <c r="E40" s="14"/>
@@ -18466,117 +18499,117 @@
         <v>48</v>
       </c>
       <c r="B41" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="C41" s="72">
+        <v>165</v>
+      </c>
+      <c r="C41" s="73">
         <v>291</v>
       </c>
-      <c r="D41" s="73">
+      <c r="D41" s="74">
         <v>300</v>
       </c>
       <c r="E41" s="14"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" t="s" s="19">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="C42" s="72">
+        <v>165</v>
+      </c>
+      <c r="C42" s="73">
         <v>307</v>
       </c>
-      <c r="D42" s="73">
+      <c r="D42" s="74">
         <v>316</v>
       </c>
       <c r="E42" s="14"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" t="s" s="19">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s" s="19">
-        <v>160</v>
-      </c>
-      <c r="C43" s="72">
+        <v>166</v>
+      </c>
+      <c r="C43" s="73">
         <v>196</v>
       </c>
-      <c r="D43" s="72">
+      <c r="D43" s="73">
         <v>207</v>
       </c>
       <c r="E43" s="14"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" t="s" s="19">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s" s="19">
-        <v>160</v>
-      </c>
-      <c r="C44" s="72">
+        <v>166</v>
+      </c>
+      <c r="C44" s="73">
         <v>212</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="73">
         <v>223</v>
       </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" t="s" s="19">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s" s="19">
-        <v>160</v>
-      </c>
-      <c r="C45" s="72">
+        <v>166</v>
+      </c>
+      <c r="C45" s="73">
         <v>228</v>
       </c>
-      <c r="D45" s="73">
+      <c r="D45" s="74">
         <v>239</v>
       </c>
       <c r="E45" s="14"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" t="s" s="19">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s" s="19">
-        <v>160</v>
-      </c>
-      <c r="C46" s="72">
+        <v>166</v>
+      </c>
+      <c r="C46" s="73">
         <v>244</v>
       </c>
-      <c r="D46" s="72">
+      <c r="D46" s="73">
         <v>255</v>
       </c>
       <c r="E46" s="14"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" t="s" s="19">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s" s="19">
-        <v>160</v>
-      </c>
-      <c r="C47" s="72">
+        <v>166</v>
+      </c>
+      <c r="C47" s="73">
         <v>260</v>
       </c>
-      <c r="D47" s="73">
+      <c r="D47" s="74">
         <v>271</v>
       </c>
       <c r="E47" s="14"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s" s="19">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s" s="19">
-        <v>160</v>
-      </c>
-      <c r="C48" s="72">
+        <v>166</v>
+      </c>
+      <c r="C48" s="73">
         <v>276</v>
       </c>
-      <c r="D48" s="73">
+      <c r="D48" s="74">
         <v>287</v>
       </c>
       <c r="E48" s="14"/>
@@ -18586,27 +18619,27 @@
         <v>48</v>
       </c>
       <c r="B49" t="s" s="19">
-        <v>160</v>
-      </c>
-      <c r="C49" s="72">
+        <v>166</v>
+      </c>
+      <c r="C49" s="73">
         <v>292</v>
       </c>
-      <c r="D49" s="73">
+      <c r="D49" s="74">
         <v>303</v>
       </c>
       <c r="E49" s="14"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" t="s" s="19">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s" s="19">
-        <v>160</v>
-      </c>
-      <c r="C50" s="72">
+        <v>166</v>
+      </c>
+      <c r="C50" s="73">
         <v>308</v>
       </c>
-      <c r="D50" s="73">
+      <c r="D50" s="74">
         <v>319</v>
       </c>
       <c r="E50" s="14"/>
@@ -18628,48 +18661,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="74" customWidth="1"/>
-    <col min="2" max="2" width="13.1719" style="74" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="74" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="74" customWidth="1"/>
+    <col min="1" max="1" width="11" style="75" customWidth="1"/>
+    <col min="2" max="2" width="13.1719" style="75" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="75" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="75">
+      <c r="A1" t="s" s="76">
         <v>43</v>
       </c>
-      <c r="B1" t="s" s="76">
+      <c r="B1" t="s" s="77">
         <v>36</v>
       </c>
-      <c r="C1" s="77"/>
+      <c r="C1" s="78"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="78">
-        <v>161</v>
-      </c>
-      <c r="B2" t="s" s="79">
-        <v>56</v>
-      </c>
-      <c r="C2" s="77"/>
+      <c r="A2" t="s" s="79">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s" s="80">
+        <v>61</v>
+      </c>
+      <c r="C2" s="78"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="78">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s" s="79">
-        <v>163</v>
-      </c>
-      <c r="C3" s="77"/>
+      <c r="A3" t="s" s="79">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s" s="80">
+        <v>62</v>
+      </c>
+      <c r="C3" s="78"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>

--- a/GATEWAY/A1#111KIRANETXXXX/KIRANET/FIDCARE/V.5.4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111KIRANETXXXX/KIRANET/FIDCARE/V.5.4.0/report-checklist.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -431,6 +431,21 @@
     </r>
   </si>
   <si>
+    <t>2023-05-12 17:05:52.516</t>
+  </si>
+  <si>
+    <t>65e1ad1fcfef801e</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Richiesta validazione non avvenuta</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>KO</t>
   </si>
   <si>
@@ -521,11 +536,20 @@
     </r>
   </si>
   <si>
+    <t>2023-05-12 17:18:44.311</t>
+  </si>
+  <si>
+    <t>03373d8cc71d0c5e</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_RSA_TIMEOUT</t>
   </si>
   <si>
     <t xml:space="preserve">
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT1</t>
@@ -546,16 +570,10 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.5cbb7959dd0286289a6ae921ba62d377209184bc997fc312672d754b706d114b.e92e8235f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
     <t>Documento non valido</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>OK</t>
@@ -595,12 +613,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>Il software non permette di indicare il livello di riservatezza di undocumento</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT6_KO</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il software non permette l’inserimento di caratteri minuscoli in luogo del codice fiscale. Convertendo in maiuscolo eventuali lettere minuscole inserite dall’utente.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT7_KO</t>
@@ -627,12 +651,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>Il software prevede l’inserimento obbligatorio del nome e del cognome quando censito.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il software non permette l'inserimento di valori diversi da maschio, femmina o non indicato (indifferenziato).</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT11_KO</t>
@@ -915,8 +945,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="yyyy-m-d"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1486,7 +1517,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1637,13 +1668,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1652,8 +1689,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3366,22 +3406,38 @@
       <c r="E10" t="s" s="49">
         <v>50</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="53"/>
-      <c r="T10" t="s" s="54">
+      <c r="F10" s="50">
+        <v>45058</v>
+      </c>
+      <c r="G10" t="s" s="51">
         <v>51</v>
+      </c>
+      <c r="H10" t="s" s="51">
+        <v>52</v>
+      </c>
+      <c r="I10" s="52"/>
+      <c r="J10" t="s" s="53">
+        <v>53</v>
+      </c>
+      <c r="K10" s="54"/>
+      <c r="L10" t="s" s="53">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s" s="53">
+        <v>53</v>
+      </c>
+      <c r="N10" t="s" s="53">
+        <v>54</v>
+      </c>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" t="s" s="53">
+        <v>55</v>
+      </c>
+      <c r="R10" s="53"/>
+      <c r="S10" s="55"/>
+      <c r="T10" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="144" customHeight="1">
@@ -3395,27 +3451,43 @@
         <v>48</v>
       </c>
       <c r="D11" t="s" s="48">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s" s="49">
+        <v>58</v>
+      </c>
+      <c r="F11" s="50">
+        <v>45058</v>
+      </c>
+      <c r="G11" t="s" s="51">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" t="s" s="53">
         <v>53</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="53"/>
-      <c r="T11" t="s" s="54">
-        <v>51</v>
+      <c r="K11" s="54"/>
+      <c r="L11" t="s" s="53">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s" s="53">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s" s="53">
+        <v>54</v>
+      </c>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" t="s" s="53">
+        <v>55</v>
+      </c>
+      <c r="R11" s="53"/>
+      <c r="S11" s="55"/>
+      <c r="T11" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="12" ht="43.2" customHeight="1">
@@ -3429,27 +3501,35 @@
         <v>48</v>
       </c>
       <c r="D12" t="s" s="48">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s" s="49">
+        <v>62</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" t="s" s="53">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s" s="53">
+        <v>63</v>
+      </c>
+      <c r="N12" s="58"/>
+      <c r="O12" s="54"/>
+      <c r="P12" t="s" s="53">
         <v>54</v>
       </c>
-      <c r="E12" t="s" s="49">
+      <c r="Q12" t="s" s="53">
         <v>55</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="53"/>
-      <c r="T12" t="s" s="54">
-        <v>51</v>
+      <c r="R12" s="53"/>
+      <c r="S12" s="55"/>
+      <c r="T12" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="158.4" customHeight="1">
@@ -3463,47 +3543,47 @@
         <v>48</v>
       </c>
       <c r="D13" t="s" s="48">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s" s="49">
-        <v>57</v>
-      </c>
-      <c r="F13" s="50">
+        <v>65</v>
+      </c>
+      <c r="F13" s="52">
         <v>45058</v>
       </c>
-      <c r="G13" t="s" s="55">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s" s="55">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s" s="55">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s" s="52">
-        <v>61</v>
-      </c>
-      <c r="K13" s="51"/>
-      <c r="L13" t="s" s="52">
-        <v>62</v>
-      </c>
-      <c r="M13" t="s" s="52">
-        <v>62</v>
-      </c>
-      <c r="N13" t="s" s="52">
+      <c r="G13" t="s" s="51">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s" s="51">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s" s="51">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s" s="53">
         <v>63</v>
       </c>
-      <c r="O13" t="s" s="52">
-        <v>62</v>
-      </c>
-      <c r="P13" s="51"/>
-      <c r="Q13" t="s" s="52">
-        <v>64</v>
-      </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="53"/>
-      <c r="T13" t="s" s="54">
-        <v>65</v>
+      <c r="K13" s="54"/>
+      <c r="L13" t="s" s="53">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s" s="53">
+        <v>69</v>
+      </c>
+      <c r="N13" t="s" s="53">
+        <v>70</v>
+      </c>
+      <c r="O13" t="s" s="53">
+        <v>69</v>
+      </c>
+      <c r="P13" s="54"/>
+      <c r="Q13" t="s" s="53">
+        <v>55</v>
+      </c>
+      <c r="R13" s="53"/>
+      <c r="S13" s="55"/>
+      <c r="T13" t="s" s="56">
+        <v>71</v>
       </c>
     </row>
     <row r="14" ht="158.4" customHeight="1">
@@ -3517,27 +3597,27 @@
         <v>48</v>
       </c>
       <c r="D14" t="s" s="48">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s" s="49">
-        <v>67</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="53"/>
-      <c r="T14" t="s" s="54">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="55"/>
+      <c r="T14" t="s" s="56">
+        <v>71</v>
       </c>
     </row>
     <row r="15" ht="158.4" customHeight="1">
@@ -3551,27 +3631,27 @@
         <v>48</v>
       </c>
       <c r="D15" t="s" s="48">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s" s="49">
-        <v>69</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="53"/>
-      <c r="T15" t="s" s="54">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="55"/>
+      <c r="T15" t="s" s="56">
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="158.4" customHeight="1">
@@ -3585,27 +3665,27 @@
         <v>48</v>
       </c>
       <c r="D16" t="s" s="48">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s" s="49">
+        <v>77</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="55"/>
+      <c r="T16" t="s" s="56">
         <v>71</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="53"/>
-      <c r="T16" t="s" s="54">
-        <v>65</v>
       </c>
     </row>
     <row r="17" ht="100.8" customHeight="1">
@@ -3619,27 +3699,31 @@
         <v>48</v>
       </c>
       <c r="D17" t="s" s="48">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s" s="49">
-        <v>73</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="53"/>
-      <c r="T17" t="s" s="54">
-        <v>51</v>
+        <v>79</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" t="s" s="53">
+        <v>69</v>
+      </c>
+      <c r="K17" t="s" s="53">
+        <v>80</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="55"/>
+      <c r="T17" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="115.2" customHeight="1">
@@ -3653,27 +3737,31 @@
         <v>48</v>
       </c>
       <c r="D18" t="s" s="48">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s" s="49">
-        <v>75</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="53"/>
-      <c r="T18" t="s" s="54">
-        <v>51</v>
+        <v>82</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" t="s" s="53">
+        <v>69</v>
+      </c>
+      <c r="K18" t="s" s="53">
+        <v>83</v>
+      </c>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="55"/>
+      <c r="T18" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="115.2" customHeight="1">
@@ -3687,27 +3775,31 @@
         <v>48</v>
       </c>
       <c r="D19" t="s" s="48">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s" s="49">
-        <v>77</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
-      <c r="T19" t="s" s="54">
-        <v>51</v>
+        <v>85</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" t="s" s="53">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s" s="53">
+        <v>80</v>
+      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="55"/>
+      <c r="T19" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="115.2" customHeight="1">
@@ -3721,27 +3813,27 @@
         <v>48</v>
       </c>
       <c r="D20" t="s" s="48">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s" s="49">
-        <v>79</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="53"/>
-      <c r="T20" t="s" s="54">
-        <v>51</v>
+        <v>87</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="55"/>
+      <c r="T20" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="115.2" customHeight="1">
@@ -3755,27 +3847,31 @@
         <v>48</v>
       </c>
       <c r="D21" t="s" s="48">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s" s="49">
-        <v>81</v>
-      </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="53"/>
-      <c r="T21" t="s" s="54">
-        <v>51</v>
+        <v>89</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" t="s" s="53">
+        <v>69</v>
+      </c>
+      <c r="K21" t="s" s="53">
+        <v>90</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="55"/>
+      <c r="T21" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="22" ht="115.2" customHeight="1">
@@ -3789,27 +3885,31 @@
         <v>48</v>
       </c>
       <c r="D22" t="s" s="48">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s" s="49">
-        <v>83</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="53"/>
-      <c r="T22" t="s" s="54">
-        <v>51</v>
+        <v>92</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" t="s" s="53">
+        <v>69</v>
+      </c>
+      <c r="K22" t="s" s="53">
+        <v>93</v>
+      </c>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="55"/>
+      <c r="T22" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="23" ht="115.2" customHeight="1">
@@ -3823,27 +3923,27 @@
         <v>48</v>
       </c>
       <c r="D23" t="s" s="48">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s" s="49">
-        <v>85</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="53"/>
-      <c r="T23" t="s" s="54">
-        <v>51</v>
+        <v>95</v>
+      </c>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="55"/>
+      <c r="T23" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="24" ht="115.2" customHeight="1">
@@ -3857,27 +3957,27 @@
         <v>48</v>
       </c>
       <c r="D24" t="s" s="48">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s" s="49">
-        <v>87</v>
-      </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="53"/>
-      <c r="T24" t="s" s="54">
-        <v>51</v>
+        <v>97</v>
+      </c>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="55"/>
+      <c r="T24" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="25" ht="100.8" customHeight="1">
@@ -3891,27 +3991,27 @@
         <v>48</v>
       </c>
       <c r="D25" t="s" s="48">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s" s="49">
-        <v>89</v>
-      </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="53"/>
-      <c r="T25" t="s" s="54">
-        <v>51</v>
+        <v>99</v>
+      </c>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="55"/>
+      <c r="T25" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="26" ht="100.8" customHeight="1">
@@ -3925,27 +4025,27 @@
         <v>48</v>
       </c>
       <c r="D26" t="s" s="48">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s" s="49">
-        <v>91</v>
-      </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="53"/>
-      <c r="T26" t="s" s="54">
-        <v>51</v>
+        <v>101</v>
+      </c>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="55"/>
+      <c r="T26" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="27" ht="115.2" customHeight="1">
@@ -3959,27 +4059,27 @@
         <v>48</v>
       </c>
       <c r="D27" t="s" s="48">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s" s="49">
-        <v>93</v>
-      </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="53"/>
-      <c r="T27" t="s" s="54">
-        <v>51</v>
+        <v>103</v>
+      </c>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="55"/>
+      <c r="T27" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="28" ht="115.2" customHeight="1">
@@ -3993,27 +4093,27 @@
         <v>48</v>
       </c>
       <c r="D28" t="s" s="48">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s" s="49">
-        <v>95</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="53"/>
-      <c r="T28" t="s" s="54">
-        <v>51</v>
+        <v>105</v>
+      </c>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="55"/>
+      <c r="T28" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="29" ht="115.2" customHeight="1">
@@ -4027,27 +4127,27 @@
         <v>48</v>
       </c>
       <c r="D29" t="s" s="48">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s" s="49">
-        <v>97</v>
-      </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="53"/>
-      <c r="T29" t="s" s="54">
-        <v>51</v>
+        <v>107</v>
+      </c>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="55"/>
+      <c r="T29" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="115.2" customHeight="1">
@@ -4061,27 +4161,27 @@
         <v>48</v>
       </c>
       <c r="D30" t="s" s="48">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s" s="49">
-        <v>99</v>
-      </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="53"/>
-      <c r="T30" t="s" s="54">
-        <v>51</v>
+        <v>109</v>
+      </c>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="55"/>
+      <c r="T30" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="31" ht="115.2" customHeight="1">
@@ -4095,27 +4195,27 @@
         <v>48</v>
       </c>
       <c r="D31" t="s" s="48">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s" s="49">
-        <v>101</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="53"/>
-      <c r="T31" t="s" s="54">
-        <v>51</v>
+        <v>111</v>
+      </c>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="55"/>
+      <c r="T31" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="115.2" customHeight="1">
@@ -4129,27 +4229,27 @@
         <v>48</v>
       </c>
       <c r="D32" t="s" s="48">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s" s="49">
-        <v>103</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="53"/>
-      <c r="T32" t="s" s="54">
-        <v>51</v>
+        <v>113</v>
+      </c>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="55"/>
+      <c r="T32" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="115.2" customHeight="1">
@@ -4163,27 +4263,27 @@
         <v>48</v>
       </c>
       <c r="D33" t="s" s="48">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s" s="49">
-        <v>105</v>
-      </c>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="53"/>
-      <c r="T33" t="s" s="54">
-        <v>51</v>
+        <v>115</v>
+      </c>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="55"/>
+      <c r="T33" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="115.2" customHeight="1">
@@ -4197,61 +4297,61 @@
         <v>48</v>
       </c>
       <c r="D34" t="s" s="48">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s" s="49">
-        <v>107</v>
-      </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="53"/>
-      <c r="T34" t="s" s="54">
-        <v>51</v>
+        <v>117</v>
+      </c>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="55"/>
+      <c r="T34" t="s" s="56">
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="115.2" customHeight="1">
-      <c r="A35" s="56">
+      <c r="A35" s="59">
         <v>169</v>
       </c>
-      <c r="B35" t="s" s="57">
+      <c r="B35" t="s" s="60">
         <v>47</v>
       </c>
-      <c r="C35" t="s" s="57">
+      <c r="C35" t="s" s="60">
         <v>48</v>
       </c>
-      <c r="D35" t="s" s="57">
-        <v>108</v>
-      </c>
-      <c r="E35" t="s" s="58">
-        <v>109</v>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="62"/>
-      <c r="T35" t="s" s="63">
-        <v>51</v>
+      <c r="D35" t="s" s="60">
+        <v>118</v>
+      </c>
+      <c r="E35" t="s" s="61">
+        <v>119</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="65"/>
+      <c r="T35" t="s" s="66">
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
@@ -4260,21 +4360,21 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="68"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="70"/>
+      <c r="T36" s="71"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="3"/>
@@ -17861,7 +17961,7 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J35 L12:M35 O12:O35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J19 L12:M35 O12:O35 J21:J35">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q12:Q35">
@@ -17886,116 +17986,116 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="69" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="69" customWidth="1"/>
-    <col min="3" max="3" width="18.8516" style="69" customWidth="1"/>
-    <col min="4" max="4" width="102" style="69" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="69" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="69" customWidth="1"/>
+    <col min="1" max="1" width="16" style="72" customWidth="1"/>
+    <col min="2" max="2" width="23.8516" style="72" customWidth="1"/>
+    <col min="3" max="3" width="18.8516" style="72" customWidth="1"/>
+    <col min="4" max="4" width="102" style="72" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="72" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="72" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="70">
+      <c r="A1" t="s" s="73">
         <v>29</v>
       </c>
-      <c r="B1" t="s" s="70">
+      <c r="B1" t="s" s="73">
         <v>28</v>
       </c>
-      <c r="C1" t="s" s="70">
-        <v>110</v>
-      </c>
-      <c r="D1" t="s" s="70">
-        <v>111</v>
+      <c r="C1" t="s" s="73">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s" s="73">
+        <v>121</v>
       </c>
       <c r="E1" s="14"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="19">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s" s="71">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s" s="71">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="C2" t="s" s="74">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s" s="74">
+        <v>125</v>
       </c>
       <c r="E2" s="14"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="19">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s" s="71">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s" s="71">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="C3" t="s" s="74">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s" s="74">
+        <v>128</v>
       </c>
       <c r="E3" s="14"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s" s="19">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s" s="71">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s" s="72">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="C4" t="s" s="74">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s" s="75">
+        <v>131</v>
       </c>
       <c r="E4" s="14"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="19">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s" s="71">
         <v>123</v>
       </c>
-      <c r="D5" t="s" s="71">
-        <v>124</v>
+      <c r="C5" t="s" s="74">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s" s="74">
+        <v>134</v>
       </c>
       <c r="E5" s="14"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="19">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s" s="71">
-        <v>126</v>
-      </c>
-      <c r="D6" t="s" s="72">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="C6" t="s" s="74">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s" s="75">
+        <v>137</v>
       </c>
       <c r="E6" s="14"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
       <c r="A7" t="s" s="19">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s" s="71">
-        <v>129</v>
-      </c>
-      <c r="D7" t="s" s="72">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="C7" t="s" s="74">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s" s="75">
+        <v>140</v>
       </c>
       <c r="E7" s="14"/>
     </row>
@@ -18004,133 +18104,133 @@
         <v>48</v>
       </c>
       <c r="B8" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s" s="71">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s" s="72">
-        <v>132</v>
+        <v>123</v>
+      </c>
+      <c r="C8" t="s" s="74">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s" s="75">
+        <v>142</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" ht="14.4" customHeight="1">
       <c r="A9" t="s" s="19">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="C9" t="s" s="71">
-        <v>134</v>
-      </c>
-      <c r="D9" t="s" s="72">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="C9" t="s" s="74">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s" s="75">
+        <v>145</v>
       </c>
       <c r="E9" s="14"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s" s="19">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="C10" s="73">
+        <v>123</v>
+      </c>
+      <c r="C10" s="76">
         <v>191</v>
       </c>
-      <c r="D10" t="s" s="71">
-        <v>137</v>
+      <c r="D10" t="s" s="74">
+        <v>147</v>
       </c>
       <c r="E10" s="14"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s" s="19">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s" s="19">
-        <v>138</v>
-      </c>
-      <c r="C11" s="73">
+        <v>148</v>
+      </c>
+      <c r="C11" s="76">
         <v>192</v>
       </c>
-      <c r="D11" t="s" s="71">
-        <v>139</v>
+      <c r="D11" t="s" s="74">
+        <v>149</v>
       </c>
       <c r="E11" s="14"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s" s="19">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="19">
-        <v>138</v>
-      </c>
-      <c r="C12" s="73">
+        <v>148</v>
+      </c>
+      <c r="C12" s="76">
         <v>208</v>
       </c>
-      <c r="D12" t="s" s="71">
-        <v>140</v>
+      <c r="D12" t="s" s="74">
+        <v>150</v>
       </c>
       <c r="E12" s="14"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s" s="19">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="19">
-        <v>138</v>
-      </c>
-      <c r="C13" s="73">
+        <v>148</v>
+      </c>
+      <c r="C13" s="76">
         <v>224</v>
       </c>
-      <c r="D13" t="s" s="72">
-        <v>141</v>
+      <c r="D13" t="s" s="75">
+        <v>151</v>
       </c>
       <c r="E13" s="14"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s" s="19">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="19">
-        <v>138</v>
-      </c>
-      <c r="C14" s="73">
+        <v>148</v>
+      </c>
+      <c r="C14" s="76">
         <v>240</v>
       </c>
-      <c r="D14" t="s" s="71">
-        <v>142</v>
+      <c r="D14" t="s" s="74">
+        <v>152</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s" s="19">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="19">
-        <v>138</v>
-      </c>
-      <c r="C15" s="73">
+        <v>148</v>
+      </c>
+      <c r="C15" s="76">
         <v>256</v>
       </c>
-      <c r="D15" t="s" s="72">
-        <v>143</v>
+      <c r="D15" t="s" s="75">
+        <v>153</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s" s="19">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="19">
-        <v>138</v>
-      </c>
-      <c r="C16" s="73">
+        <v>148</v>
+      </c>
+      <c r="C16" s="76">
         <v>272</v>
       </c>
-      <c r="D16" t="s" s="72">
-        <v>144</v>
+      <c r="D16" t="s" s="75">
+        <v>154</v>
       </c>
       <c r="E16" s="14"/>
     </row>
@@ -18139,118 +18239,118 @@
         <v>48</v>
       </c>
       <c r="B17" t="s" s="19">
-        <v>138</v>
-      </c>
-      <c r="C17" s="73">
+        <v>148</v>
+      </c>
+      <c r="C17" s="76">
         <v>288</v>
       </c>
-      <c r="D17" t="s" s="72">
-        <v>145</v>
+      <c r="D17" t="s" s="75">
+        <v>155</v>
       </c>
       <c r="E17" s="14"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" t="s" s="19">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="19">
-        <v>138</v>
-      </c>
-      <c r="C18" s="73">
+        <v>148</v>
+      </c>
+      <c r="C18" s="76">
         <v>304</v>
       </c>
-      <c r="D18" t="s" s="72">
-        <v>146</v>
+      <c r="D18" t="s" s="75">
+        <v>156</v>
       </c>
       <c r="E18" s="14"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s" s="19">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="C19" s="73">
+        <v>157</v>
+      </c>
+      <c r="C19" s="76">
         <v>193</v>
       </c>
-      <c r="D19" t="s" s="71">
-        <v>148</v>
+      <c r="D19" t="s" s="74">
+        <v>158</v>
       </c>
       <c r="E19" s="14"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s" s="19">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="C20" s="73">
+        <v>157</v>
+      </c>
+      <c r="C20" s="76">
         <v>209</v>
       </c>
-      <c r="D20" t="s" s="71">
-        <v>149</v>
+      <c r="D20" t="s" s="74">
+        <v>159</v>
       </c>
       <c r="E20" s="14"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s" s="19">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="C21" s="73">
+        <v>157</v>
+      </c>
+      <c r="C21" s="76">
         <v>225</v>
       </c>
-      <c r="D21" t="s" s="72">
-        <v>150</v>
+      <c r="D21" t="s" s="75">
+        <v>160</v>
       </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s" s="19">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="C22" s="73">
+        <v>157</v>
+      </c>
+      <c r="C22" s="76">
         <v>241</v>
       </c>
-      <c r="D22" t="s" s="71">
-        <v>151</v>
+      <c r="D22" t="s" s="74">
+        <v>161</v>
       </c>
       <c r="E22" s="14"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s" s="19">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="C23" s="73">
+        <v>157</v>
+      </c>
+      <c r="C23" s="76">
         <v>257</v>
       </c>
-      <c r="D23" t="s" s="72">
-        <v>152</v>
+      <c r="D23" t="s" s="75">
+        <v>162</v>
       </c>
       <c r="E23" s="14"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s" s="19">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="C24" s="73">
+        <v>157</v>
+      </c>
+      <c r="C24" s="76">
         <v>273</v>
       </c>
-      <c r="D24" t="s" s="72">
-        <v>153</v>
+      <c r="D24" t="s" s="75">
+        <v>163</v>
       </c>
       <c r="E24" s="14"/>
     </row>
@@ -18259,118 +18359,118 @@
         <v>48</v>
       </c>
       <c r="B25" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="C25" s="73">
+        <v>157</v>
+      </c>
+      <c r="C25" s="76">
         <v>289</v>
       </c>
-      <c r="D25" t="s" s="72">
-        <v>154</v>
+      <c r="D25" t="s" s="75">
+        <v>164</v>
       </c>
       <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s" s="19">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="C26" s="73">
+        <v>157</v>
+      </c>
+      <c r="C26" s="76">
         <v>305</v>
       </c>
-      <c r="D26" t="s" s="72">
-        <v>155</v>
+      <c r="D26" t="s" s="75">
+        <v>165</v>
       </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s" s="19">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="C27" s="73">
+        <v>166</v>
+      </c>
+      <c r="C27" s="76">
         <v>194</v>
       </c>
-      <c r="D27" t="s" s="71">
-        <v>157</v>
+      <c r="D27" t="s" s="74">
+        <v>167</v>
       </c>
       <c r="E27" s="14"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s" s="19">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="C28" s="73">
+        <v>166</v>
+      </c>
+      <c r="C28" s="76">
         <v>210</v>
       </c>
-      <c r="D28" t="s" s="71">
-        <v>158</v>
+      <c r="D28" t="s" s="74">
+        <v>168</v>
       </c>
       <c r="E28" s="14"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" t="s" s="19">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="C29" s="73">
+        <v>166</v>
+      </c>
+      <c r="C29" s="76">
         <v>226</v>
       </c>
-      <c r="D29" t="s" s="72">
-        <v>159</v>
+      <c r="D29" t="s" s="75">
+        <v>169</v>
       </c>
       <c r="E29" s="14"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" t="s" s="19">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="C30" s="73">
+        <v>166</v>
+      </c>
+      <c r="C30" s="76">
         <v>242</v>
       </c>
-      <c r="D30" t="s" s="71">
-        <v>160</v>
+      <c r="D30" t="s" s="74">
+        <v>170</v>
       </c>
       <c r="E30" s="14"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" t="s" s="19">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="C31" s="73">
+        <v>166</v>
+      </c>
+      <c r="C31" s="76">
         <v>258</v>
       </c>
-      <c r="D31" t="s" s="72">
-        <v>161</v>
+      <c r="D31" t="s" s="75">
+        <v>171</v>
       </c>
       <c r="E31" s="14"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" t="s" s="19">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="C32" s="73">
+        <v>166</v>
+      </c>
+      <c r="C32" s="76">
         <v>274</v>
       </c>
-      <c r="D32" t="s" s="72">
-        <v>162</v>
+      <c r="D32" t="s" s="75">
+        <v>172</v>
       </c>
       <c r="E32" s="14"/>
     </row>
@@ -18379,117 +18479,117 @@
         <v>48</v>
       </c>
       <c r="B33" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="C33" s="73">
+        <v>166</v>
+      </c>
+      <c r="C33" s="76">
         <v>290</v>
       </c>
-      <c r="D33" t="s" s="72">
-        <v>163</v>
+      <c r="D33" t="s" s="75">
+        <v>173</v>
       </c>
       <c r="E33" s="14"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" t="s" s="19">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s" s="19">
-        <v>156</v>
-      </c>
-      <c r="C34" s="73">
+        <v>166</v>
+      </c>
+      <c r="C34" s="76">
         <v>306</v>
       </c>
-      <c r="D34" t="s" s="72">
-        <v>164</v>
+      <c r="D34" t="s" s="75">
+        <v>174</v>
       </c>
       <c r="E34" s="14"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" t="s" s="19">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s" s="19">
-        <v>165</v>
-      </c>
-      <c r="C35" s="73">
+        <v>175</v>
+      </c>
+      <c r="C35" s="76">
         <v>195</v>
       </c>
-      <c r="D35" s="73">
+      <c r="D35" s="76">
         <v>204</v>
       </c>
       <c r="E35" s="14"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" t="s" s="19">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s" s="19">
-        <v>165</v>
-      </c>
-      <c r="C36" s="73">
+        <v>175</v>
+      </c>
+      <c r="C36" s="76">
         <v>211</v>
       </c>
-      <c r="D36" s="73">
+      <c r="D36" s="76">
         <v>220</v>
       </c>
       <c r="E36" s="14"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" t="s" s="19">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s" s="19">
-        <v>165</v>
-      </c>
-      <c r="C37" s="73">
+        <v>175</v>
+      </c>
+      <c r="C37" s="76">
         <v>227</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="77">
         <v>236</v>
       </c>
       <c r="E37" s="14"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" t="s" s="19">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s" s="19">
-        <v>165</v>
-      </c>
-      <c r="C38" s="73">
+        <v>175</v>
+      </c>
+      <c r="C38" s="76">
         <v>243</v>
       </c>
-      <c r="D38" s="73">
+      <c r="D38" s="76">
         <v>252</v>
       </c>
       <c r="E38" s="14"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" t="s" s="19">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s" s="19">
-        <v>165</v>
-      </c>
-      <c r="C39" s="73">
+        <v>175</v>
+      </c>
+      <c r="C39" s="76">
         <v>259</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="77">
         <v>268</v>
       </c>
       <c r="E39" s="14"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" t="s" s="19">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s" s="19">
-        <v>165</v>
-      </c>
-      <c r="C40" s="73">
+        <v>175</v>
+      </c>
+      <c r="C40" s="76">
         <v>275</v>
       </c>
-      <c r="D40" s="74">
+      <c r="D40" s="77">
         <v>284</v>
       </c>
       <c r="E40" s="14"/>
@@ -18499,117 +18599,117 @@
         <v>48</v>
       </c>
       <c r="B41" t="s" s="19">
-        <v>165</v>
-      </c>
-      <c r="C41" s="73">
+        <v>175</v>
+      </c>
+      <c r="C41" s="76">
         <v>291</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="77">
         <v>300</v>
       </c>
       <c r="E41" s="14"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" t="s" s="19">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s" s="19">
-        <v>165</v>
-      </c>
-      <c r="C42" s="73">
+        <v>175</v>
+      </c>
+      <c r="C42" s="76">
         <v>307</v>
       </c>
-      <c r="D42" s="74">
+      <c r="D42" s="77">
         <v>316</v>
       </c>
       <c r="E42" s="14"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" t="s" s="19">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s" s="19">
-        <v>166</v>
-      </c>
-      <c r="C43" s="73">
+        <v>176</v>
+      </c>
+      <c r="C43" s="76">
         <v>196</v>
       </c>
-      <c r="D43" s="73">
+      <c r="D43" s="76">
         <v>207</v>
       </c>
       <c r="E43" s="14"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" t="s" s="19">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s" s="19">
-        <v>166</v>
-      </c>
-      <c r="C44" s="73">
+        <v>176</v>
+      </c>
+      <c r="C44" s="76">
         <v>212</v>
       </c>
-      <c r="D44" s="73">
+      <c r="D44" s="76">
         <v>223</v>
       </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" t="s" s="19">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s" s="19">
-        <v>166</v>
-      </c>
-      <c r="C45" s="73">
+        <v>176</v>
+      </c>
+      <c r="C45" s="76">
         <v>228</v>
       </c>
-      <c r="D45" s="74">
+      <c r="D45" s="77">
         <v>239</v>
       </c>
       <c r="E45" s="14"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" t="s" s="19">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s" s="19">
-        <v>166</v>
-      </c>
-      <c r="C46" s="73">
+        <v>176</v>
+      </c>
+      <c r="C46" s="76">
         <v>244</v>
       </c>
-      <c r="D46" s="73">
+      <c r="D46" s="76">
         <v>255</v>
       </c>
       <c r="E46" s="14"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" t="s" s="19">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s" s="19">
-        <v>166</v>
-      </c>
-      <c r="C47" s="73">
+        <v>176</v>
+      </c>
+      <c r="C47" s="76">
         <v>260</v>
       </c>
-      <c r="D47" s="74">
+      <c r="D47" s="77">
         <v>271</v>
       </c>
       <c r="E47" s="14"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s" s="19">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s" s="19">
-        <v>166</v>
-      </c>
-      <c r="C48" s="73">
+        <v>176</v>
+      </c>
+      <c r="C48" s="76">
         <v>276</v>
       </c>
-      <c r="D48" s="74">
+      <c r="D48" s="77">
         <v>287</v>
       </c>
       <c r="E48" s="14"/>
@@ -18619,27 +18719,27 @@
         <v>48</v>
       </c>
       <c r="B49" t="s" s="19">
-        <v>166</v>
-      </c>
-      <c r="C49" s="73">
+        <v>176</v>
+      </c>
+      <c r="C49" s="76">
         <v>292</v>
       </c>
-      <c r="D49" s="74">
+      <c r="D49" s="77">
         <v>303</v>
       </c>
       <c r="E49" s="14"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" t="s" s="19">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s" s="19">
-        <v>166</v>
-      </c>
-      <c r="C50" s="73">
+        <v>176</v>
+      </c>
+      <c r="C50" s="76">
         <v>308</v>
       </c>
-      <c r="D50" s="74">
+      <c r="D50" s="77">
         <v>319</v>
       </c>
       <c r="E50" s="14"/>
@@ -18661,48 +18761,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="75" customWidth="1"/>
-    <col min="2" max="2" width="13.1719" style="75" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="75" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="75" customWidth="1"/>
+    <col min="1" max="1" width="11" style="78" customWidth="1"/>
+    <col min="2" max="2" width="13.1719" style="78" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="78" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="76">
+      <c r="A1" t="s" s="79">
         <v>43</v>
       </c>
-      <c r="B1" t="s" s="77">
+      <c r="B1" t="s" s="80">
         <v>36</v>
       </c>
-      <c r="C1" s="78"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="79">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s" s="80">
-        <v>61</v>
-      </c>
-      <c r="C2" s="78"/>
+      <c r="A2" t="s" s="82">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s" s="83">
+        <v>63</v>
+      </c>
+      <c r="C2" s="81"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="79">
-        <v>167</v>
-      </c>
-      <c r="B3" t="s" s="80">
-        <v>62</v>
-      </c>
-      <c r="C3" s="78"/>
+      <c r="A3" t="s" s="82">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s" s="83">
+        <v>69</v>
+      </c>
+      <c r="C3" s="81"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
